--- a/_extrafiles/SAP_TA2_Responsibles.xlsx
+++ b/_extrafiles/SAP_TA2_Responsibles.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SAP_TA2" sheetId="2" r:id="rId1"/>
+    <sheet name="SAP_TA2 COMPRAS" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SAP_TA2!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SAP_TA2 COMPRAS'!$A$1:$C$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="131">
   <si>
     <t>Cliente</t>
   </si>
@@ -243,13 +245,190 @@
   </si>
   <si>
     <t>LV/CTOH</t>
+  </si>
+  <si>
+    <t>Comodities</t>
+  </si>
+  <si>
+    <t>Absorption Materials - Cold End</t>
+  </si>
+  <si>
+    <t>Hangers</t>
+  </si>
+  <si>
+    <t>Hot End Insulation</t>
+  </si>
+  <si>
+    <t>Support Mats</t>
+  </si>
+  <si>
+    <t>Wire Mesh</t>
+  </si>
+  <si>
+    <t>OE Monoliths</t>
+  </si>
+  <si>
+    <t>Stainless Steel</t>
+  </si>
+  <si>
+    <t>Steel / Aluminized Carbon Steel</t>
+  </si>
+  <si>
+    <t>Tubing / Stainless Straight Tube</t>
+  </si>
+  <si>
+    <t>ICY</t>
+  </si>
+  <si>
+    <t>Welding Wire</t>
+  </si>
+  <si>
+    <t>Manipulated Pipes (Nacional)</t>
+  </si>
+  <si>
+    <t>Stampings (Nacional)</t>
+  </si>
+  <si>
+    <t>Bosses</t>
+  </si>
+  <si>
+    <t>Castings</t>
+  </si>
+  <si>
+    <t>Clamps</t>
+  </si>
+  <si>
+    <t>Cold Headings / Fasteners</t>
+  </si>
+  <si>
+    <t>Flex Couplings</t>
+  </si>
+  <si>
+    <t>Gaskets</t>
+  </si>
+  <si>
+    <t>Plastic</t>
+  </si>
+  <si>
+    <t>Packaging &amp; label</t>
+  </si>
+  <si>
+    <t>Rubber Components</t>
+  </si>
+  <si>
+    <t>Hydroforming</t>
+  </si>
+  <si>
+    <t>Manipulated Pipes(Importado)</t>
+  </si>
+  <si>
+    <t>Stampings(Importado)</t>
+  </si>
+  <si>
+    <t>GSCM_001</t>
+  </si>
+  <si>
+    <t>GSCM_002</t>
+  </si>
+  <si>
+    <t>GSCM_003</t>
+  </si>
+  <si>
+    <t>GSCM_004</t>
+  </si>
+  <si>
+    <t>GSCM_005</t>
+  </si>
+  <si>
+    <t>GSCM_006</t>
+  </si>
+  <si>
+    <t>GSCM_007</t>
+  </si>
+  <si>
+    <t>GSCM_008</t>
+  </si>
+  <si>
+    <t>GSCM_009</t>
+  </si>
+  <si>
+    <t>GSCM_010</t>
+  </si>
+  <si>
+    <t>GSCM_011</t>
+  </si>
+  <si>
+    <t>GSCM_012</t>
+  </si>
+  <si>
+    <t>GSCM_013</t>
+  </si>
+  <si>
+    <t>GSCM_014</t>
+  </si>
+  <si>
+    <t>GSCM_015</t>
+  </si>
+  <si>
+    <t>GSCM_016</t>
+  </si>
+  <si>
+    <t>GSCM_017</t>
+  </si>
+  <si>
+    <t>GSCM_018</t>
+  </si>
+  <si>
+    <t>GSCM_019</t>
+  </si>
+  <si>
+    <t>GSCM_020</t>
+  </si>
+  <si>
+    <t>GSCM_021</t>
+  </si>
+  <si>
+    <t>GSCM_022</t>
+  </si>
+  <si>
+    <t>GSCM_023</t>
+  </si>
+  <si>
+    <t>GSCM_024</t>
+  </si>
+  <si>
+    <t>GSCM_025</t>
+  </si>
+  <si>
+    <t>RODRCHA1</t>
+  </si>
+  <si>
+    <t>SIDNSILV</t>
+  </si>
+  <si>
+    <t>REISL099</t>
+  </si>
+  <si>
+    <t>ID HTML</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>PALORIB1</t>
+  </si>
+  <si>
+    <t>LOPESF82</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,8 +452,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,6 +485,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -312,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -323,6 +515,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,4 +1686,395 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C26">
+    <sortState ref="A2:L21">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/_extrafiles/SAP_TA2_Responsibles.xlsx
+++ b/_extrafiles/SAP_TA2_Responsibles.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="132">
   <si>
     <t>Cliente</t>
   </si>
@@ -247,9 +247,6 @@
     <t>LV/CTOH</t>
   </si>
   <si>
-    <t>Comodities</t>
-  </si>
-  <si>
     <t>Absorption Materials - Cold End</t>
   </si>
   <si>
@@ -422,13 +419,19 @@
   </si>
   <si>
     <t>LOPESF82</t>
+  </si>
+  <si>
+    <t>Atualizado conforme alinhamento com a Paloma via team no dia 29.08.2022</t>
+  </si>
+  <si>
+    <t>Commodities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,8 +462,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,6 +501,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -501,10 +516,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -517,8 +533,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1690,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,367 +1724,375 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>123</v>
-      </c>
       <c r="D26" s="11" t="s">
-        <v>129</v>
-      </c>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C26">

--- a/_extrafiles/SAP_TA2_Responsibles.xlsx
+++ b/_extrafiles/SAP_TA2_Responsibles.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
-    <sheet name="SAP_TA2" sheetId="2" r:id="rId1"/>
+    <sheet name="FABRICADOS_TA2" sheetId="2" r:id="rId1"/>
     <sheet name="SAP_TA2 COMPRAS" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SAP_TA2!$A$1:$L$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SAP_TA2 COMPRAS'!$A$1:$C$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FABRICADOS_TA2!$A$2:$L$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SAP_TA2 COMPRAS'!$A$1:$B$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,8 +28,68 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>dos Santos, Marcelo Pupo</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dos Santos, Marcelo Pupo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Atualizado via e-mail
+Rodrigo Ceragiolli.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dos Santos, Marcelo Pupo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Atualizado via e-mail
+André Monteiro.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="131">
   <si>
     <t>Cliente</t>
   </si>
@@ -55,15 +115,6 @@
     <t>VWL</t>
   </si>
   <si>
-    <t>SALAPEDA</t>
-  </si>
-  <si>
-    <t>TULISILV</t>
-  </si>
-  <si>
-    <t>LIBERF72</t>
-  </si>
-  <si>
     <t>DIOGBOVE</t>
   </si>
   <si>
@@ -130,12 +181,6 @@
     <t>NIS</t>
   </si>
   <si>
-    <t>MERCEDES BENZ</t>
-  </si>
-  <si>
-    <t>DAI</t>
-  </si>
-  <si>
     <t>ELTOBORG</t>
   </si>
   <si>
@@ -223,12 +268,6 @@
     <t>Customer Status</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
     <t>Great Wall</t>
   </si>
   <si>
@@ -397,9 +436,6 @@
     <t>GSCM_025</t>
   </si>
   <si>
-    <t>RODRCHA1</t>
-  </si>
-  <si>
     <t>SIDNSILV</t>
   </si>
   <si>
@@ -409,12 +445,6 @@
     <t>ID HTML</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
     <t>PALORIB1</t>
   </si>
   <si>
@@ -425,6 +455,33 @@
   </si>
   <si>
     <t>Commodities</t>
+  </si>
+  <si>
+    <t>29.08.2022</t>
+  </si>
+  <si>
+    <t>DA6</t>
+  </si>
+  <si>
+    <t>DA5</t>
+  </si>
+  <si>
+    <t>DAIMLER EU6</t>
+  </si>
+  <si>
+    <t>DAIMLER EU5</t>
+  </si>
+  <si>
+    <t>EDMALIMA</t>
+  </si>
+  <si>
+    <t>LUCACALE</t>
+  </si>
+  <si>
+    <t>FLAVCATA</t>
+  </si>
+  <si>
+    <t>VITODAMA</t>
   </si>
 </sst>
 </file>
@@ -448,29 +505,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,11 +555,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -516,27 +565,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -814,403 +868,372 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.42578125" customWidth="1"/>
-    <col min="6" max="7" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="13">
+        <v>44873</v>
+      </c>
+      <c r="K1" s="13">
+        <v>44873</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="J2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="J6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L6" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>12</v>
+      <c r="G8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1218,462 +1241,506 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>42</v>
+        <v>16</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="L14" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>42</v>
+      <c r="J17" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="K18" s="2" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L19" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>12</v>
+      <c r="I20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>20</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="H22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="I23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="4"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -1681,421 +1748,373 @@
     </row>
     <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="6"/>
+      <c r="G26" s="4"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L1">
-    <sortState ref="A2:L21">
-      <sortCondition ref="B1"/>
+  <autoFilter ref="A2:L23">
+    <sortState ref="A3:L23">
+      <sortCondition ref="B2:B23"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:D26"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C9" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="C10" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="C11" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="C12" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="C13" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="C14" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="C15" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="C16" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="C17" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="C18" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="C19" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="C20" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="C21" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="C22" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="C23" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="C24" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="C25" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="C26" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>120</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="C28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C26">
+  <autoFilter ref="A1:B26">
     <sortState ref="A2:L21">
       <sortCondition ref="A1"/>
     </sortState>

--- a/_extrafiles/SAP_TA2_Responsibles.xlsx
+++ b/_extrafiles/SAP_TA2_Responsibles.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="132">
   <si>
     <t>Cliente</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>VITODAMA</t>
+  </si>
+  <si>
+    <t>NADIDINI</t>
   </si>
 </sst>
 </file>
@@ -872,7 +875,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,14 +886,16 @@
     <col min="5" max="5" width="17.85546875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H1" s="13">
+        <v>44916</v>
+      </c>
       <c r="I1" s="13">
         <v>44873</v>
       </c>
@@ -997,7 +1002,7 @@
         <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>22</v>
@@ -1035,7 +1040,7 @@
         <v>54</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>16</v>
@@ -1149,7 +1154,7 @@
         <v>53</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>22</v>
@@ -1183,7 +1188,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="6"/>
       <c r="H9" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>22</v>
@@ -1221,7 +1226,7 @@
         <v>54</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>16</v>
@@ -1297,7 +1302,7 @@
         <v>54</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>22</v>
@@ -1373,7 +1378,7 @@
         <v>53</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>22</v>
@@ -1411,7 +1416,7 @@
         <v>52</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>22</v>
@@ -1487,7 +1492,7 @@
         <v>54</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>16</v>
@@ -1525,7 +1530,7 @@
         <v>52</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>22</v>

--- a/_extrafiles/SAP_TA2_Responsibles.xlsx
+++ b/_extrafiles/SAP_TA2_Responsibles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FABRICADOS_TA2" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FABRICADOS_TA2!$A$2:$L$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SAP_TA2 COMPRAS'!$A$1:$B$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SAP_TA2 COMPRAS'!$A$1:$D$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="163">
   <si>
     <t>Cliente</t>
   </si>
@@ -485,6 +485,99 @@
   </si>
   <si>
     <t>NADIDINI</t>
+  </si>
+  <si>
+    <t>Returnable Packaging</t>
+  </si>
+  <si>
+    <t>GSCM_026</t>
+  </si>
+  <si>
+    <t>Manta térmica</t>
+  </si>
+  <si>
+    <t>Malha de aço (wire mesh)</t>
+  </si>
+  <si>
+    <t>Catalisadores</t>
+  </si>
+  <si>
+    <t>MP - Aço aluminizado e carbono</t>
+  </si>
+  <si>
+    <t>ICY (Outras Tenneco)</t>
+  </si>
+  <si>
+    <t>Arame de solda</t>
+  </si>
+  <si>
+    <t>Componentes fundidos</t>
+  </si>
+  <si>
+    <t>Abraçadeiras</t>
+  </si>
+  <si>
+    <t>Parafusos, arruelas e porcas</t>
+  </si>
+  <si>
+    <t>Elemento flexível</t>
+  </si>
+  <si>
+    <t>Juntas</t>
+  </si>
+  <si>
+    <t>Plasticos</t>
+  </si>
+  <si>
+    <t>Embalagem retornavel</t>
+  </si>
+  <si>
+    <t>Embalagens e etiquetas</t>
+  </si>
+  <si>
+    <t>Coxins e elementos de borracha</t>
+  </si>
+  <si>
+    <t>Componetes hidroformados</t>
+  </si>
+  <si>
+    <t>Estampados (Importado)</t>
+  </si>
+  <si>
+    <t>Tubo dobrado, estampado, furado (Importado)</t>
+  </si>
+  <si>
+    <t>Português</t>
+  </si>
+  <si>
+    <t>Material absorsivo, fibra de vidro</t>
+  </si>
+  <si>
+    <t>Ganchos, suportes tubular (hangers)</t>
+  </si>
+  <si>
+    <t>MP - Chapas e bobinas em Aço inox</t>
+  </si>
+  <si>
+    <t>Suporte do catalisador (Support Mats)</t>
+  </si>
+  <si>
+    <t>MP - Tubo em inox</t>
+  </si>
+  <si>
+    <t>Tubo dobrado, estampado, furado (Nacional)</t>
+  </si>
+  <si>
+    <t>Estampados (Nacional)</t>
+  </si>
+  <si>
+    <t>Conector do sensor (microfundido)</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+  </si>
+  <si>
+    <t>16.05.2023</t>
   </si>
 </sst>
 </file>
@@ -527,7 +620,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,6 +651,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -571,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -592,6 +691,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -874,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,317 +1918,544 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="9"/>
+      <c r="F2" t="str">
+        <f>"COMPRADOS: "&amp;C2&amp;"&lt;/option&gt;"</f>
+        <v>COMPRADOS: Material absorsivo, fibra de vidro&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="9"/>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F27" si="0">"COMPRADOS: "&amp;C3&amp;"&lt;/option&gt;"</f>
+        <v>COMPRADOS: Ganchos, suportes tubular (hangers)&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="9"/>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPRADOS: Manta térmica&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" s="9"/>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPRADOS: Suporte do catalisador (Support Mats)&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" s="9"/>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPRADOS: Malha de aço (wire mesh)&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" s="9"/>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPRADOS: Catalisadores&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" s="9"/>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPRADOS: MP - Chapas e bobinas em Aço inox&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" s="9"/>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPRADOS: MP - Aço aluminizado e carbono&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" s="9"/>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPRADOS: MP - Tubo em inox&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" s="9"/>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPRADOS: ICY (Outras Tenneco)&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" s="9"/>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPRADOS: Arame de solda&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13" s="9"/>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPRADOS: Tubo dobrado, estampado, furado (Nacional)&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14" s="9"/>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPRADOS: Estampados (Nacional)&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPRADOS: Conector do sensor (microfundido)&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16" s="9"/>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPRADOS: Componentes fundidos&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17" s="9"/>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPRADOS: Abraçadeiras&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPRADOS: Parafusos, arruelas e porcas&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPRADOS: Elemento flexível&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20" s="9"/>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPRADOS: Juntas&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21" s="9"/>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPRADOS: Plasticos&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22" s="9"/>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPRADOS: Embalagem retornavel&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPRADOS: Embalagens e etiquetas&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24" s="9"/>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPRADOS: Coxins e elementos de borracha&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25" s="9"/>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPRADOS: Componetes hidroformados&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPRADOS: Tubo dobrado, estampado, furado (Importado)&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPRADOS: Estampados (Importado)&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>120</v>
       </c>
-      <c r="C28"/>
+      <c r="D29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B26">
-    <sortState ref="A2:L21">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D27"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
